--- a/Soutenances M1 janvier 2020 - Contraintes.xlsx
+++ b/Soutenances M1 janvier 2020 - Contraintes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
   <si>
     <t>NOM</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Heure</t>
-  </si>
-  <si>
     <t>Jury</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Filtre avancé</t>
   </si>
   <si>
-    <t>Lundi 6 janvier 2020</t>
-  </si>
-  <si>
     <t>ABRIKH</t>
   </si>
   <si>
@@ -596,48 +590,9 @@
     <t>Email</t>
   </si>
   <si>
-    <t>11h - 11h30</t>
-  </si>
-  <si>
-    <t>11h30 - 12h</t>
-  </si>
-  <si>
-    <t>10h30 - 11h</t>
-  </si>
-  <si>
-    <t>8h30 - 9h</t>
-  </si>
-  <si>
-    <t>9h - 9h30</t>
-  </si>
-  <si>
-    <t>9h30 - 10h</t>
-  </si>
-  <si>
-    <t>13h - 13h30</t>
-  </si>
-  <si>
-    <t>13h30 - 14h</t>
-  </si>
-  <si>
-    <t>14h - 14h30</t>
-  </si>
-  <si>
-    <t>15h - 15h30</t>
-  </si>
-  <si>
-    <t>15h30 -16h</t>
-  </si>
-  <si>
-    <t>16h - 16h30</t>
-  </si>
-  <si>
     <t>TD 14</t>
   </si>
   <si>
-    <t>Mardi 7 janvier 2020</t>
-  </si>
-  <si>
     <t>Colonne1</t>
   </si>
   <si>
@@ -645,6 +600,24 @@
   </si>
   <si>
     <t>Colonne3</t>
+  </si>
+  <si>
+    <t>2020.01.06</t>
+  </si>
+  <si>
+    <t>2020.01.07</t>
+  </si>
+  <si>
+    <t>Heure Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:30</t>
+  </si>
+  <si>
+    <t>Heure Début</t>
   </si>
 </sst>
 </file>
@@ -969,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1187,6 +1160,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1204,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1337,7 +1346,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1350,8 +1359,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1377,7 +1420,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1390,8 +1433,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1552,18 +1593,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:N49" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:N49"/>
-  <sortState ref="A2:J49">
-    <sortCondition ref="G1:G49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:O49" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:O49"/>
+  <sortState ref="A2:K49">
+    <sortCondition ref="H1:H49"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="NOM" dataDxfId="9"/>
-    <tableColumn id="2" name="PRENOM" dataDxfId="8"/>
-    <tableColumn id="10" name="Email" dataDxfId="7"/>
-    <tableColumn id="3" name="ENTREPRISE" dataDxfId="6"/>
-    <tableColumn id="4" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Heure" dataDxfId="4"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="NOM" dataDxfId="10"/>
+    <tableColumn id="2" name="PRENOM" dataDxfId="9"/>
+    <tableColumn id="10" name="Email" dataDxfId="8"/>
+    <tableColumn id="3" name="ENTREPRISE" dataDxfId="7"/>
+    <tableColumn id="4" name="Date" dataDxfId="6"/>
+    <tableColumn id="16" name="Heure Début" dataDxfId="5"/>
+    <tableColumn id="5" name="Heure Fin" dataDxfId="4"/>
     <tableColumn id="6" name="Jury" dataDxfId="3"/>
     <tableColumn id="7" name="Salle" dataDxfId="2"/>
     <tableColumn id="8" name="Président" dataDxfId="1"/>
@@ -1843,27 +1885,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="24" style="26" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="24" style="26" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -1879,1800 +1922,1947 @@
       <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>202</v>
-      </c>
       <c r="L1" s="74" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="N1" s="74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="75">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G2" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M11" si="0">COUNTIF(J$2:J$49,"="&amp;$L2)</f>
+        <v>9</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N11" si="1">COUNTIF(K$2:K$49,"="&amp;$L2)</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="15">
+        <f>SUM(M2:N2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="8">
-        <f t="shared" ref="L2:L11" si="0">COUNTIF(I$2:I$49,"="&amp;$K2)</f>
-        <v>9</v>
-      </c>
-      <c r="M2" s="8">
-        <f t="shared" ref="M2:M11" si="1">COUNTIF(J$2:J$49,"="&amp;$K2)</f>
-        <v>5</v>
-      </c>
-      <c r="N2" s="15">
-        <f>SUM(L2:M2)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N3" s="15">
-        <f t="shared" ref="N3:N11" si="2">SUM(L3:M3)</f>
+      <c r="O3" s="15">
+        <f t="shared" ref="O3:O11" si="2">SUM(M3:N3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="75">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="35">
+      <c r="H4" s="35">
         <v>1</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N4" s="15">
+      <c r="O4" s="15">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="40">
+      <c r="F5" s="76">
+        <v>0.4375</v>
+      </c>
+      <c r="G5" s="76">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H5" s="40">
         <v>2</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="I5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="L5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N5" s="15">
+      <c r="O5" s="15">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="5">
+        <v>190</v>
+      </c>
+      <c r="F6" s="77">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G6" s="77">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="I6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="L6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N6" s="15">
+      <c r="O6" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="44">
+        <v>190</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="44">
         <v>2</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="I7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="15">
+      <c r="O7" s="15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="47">
+        <v>190</v>
+      </c>
+      <c r="F8" s="79">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G8" s="79">
+        <v>0.5625</v>
+      </c>
+      <c r="H8" s="47">
         <v>3</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="I8" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N8" s="15">
+      <c r="O8" s="15">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="6">
+        <v>190</v>
+      </c>
+      <c r="F9" s="80">
+        <v>0.5625</v>
+      </c>
+      <c r="G9" s="80">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="8">
+      <c r="I9" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="15">
+      <c r="O9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="50">
+        <v>190</v>
+      </c>
+      <c r="F10" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H10" s="50">
         <v>3</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="8">
+      <c r="I10" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="15">
+      <c r="O10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="52">
+        <v>190</v>
+      </c>
+      <c r="F11" s="82">
+        <v>0.625</v>
+      </c>
+      <c r="G11" s="82">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H11" s="52">
         <v>4</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="8">
+      <c r="I11" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="15">
+      <c r="O11" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="7">
+        <v>190</v>
+      </c>
+      <c r="F12" s="83">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G12" s="83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
+      <c r="I12" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="15"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="25"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="53">
+        <v>190</v>
+      </c>
+      <c r="F13" s="84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0.6875</v>
+      </c>
+      <c r="H13" s="53">
         <v>4</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="25">
-        <f>SUM(L2:L11)</f>
-        <v>48</v>
+      <c r="I13" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="M13" s="25">
         <f>SUM(M2:M11)</f>
         <v>48</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="25">
+        <f>SUM(N2:N11)</f>
+        <v>48</v>
+      </c>
+      <c r="O13" s="15">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="55">
+        <v>190</v>
+      </c>
+      <c r="F14" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="H14" s="55">
         <v>5</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="D16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G16" s="86">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H16" s="35">
         <v>5</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="35">
-        <v>5</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="25" t="e">
+      <c r="I16" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="25" t="e">
         <f>Michel Winter</f>
         <v>#NAME?</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="25"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="40">
+      <c r="F17" s="76">
+        <v>0.4375</v>
+      </c>
+      <c r="G17" s="76">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H17" s="40">
         <v>6</v>
       </c>
-      <c r="H17" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25" t="e">
+      <c r="I17" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25" t="e">
         <f>Michel Winter</f>
         <v>#NAME?</v>
       </c>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="5">
+        <v>190</v>
+      </c>
+      <c r="F18" s="77">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G18" s="77">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H18" s="5">
         <v>6</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="44">
+        <v>190</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="44">
         <v>6</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="79">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G20" s="79">
+        <v>0.5625</v>
+      </c>
+      <c r="H20" s="47">
+        <v>7</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D21" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="47">
+      <c r="E21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="80">
+        <v>0.5625</v>
+      </c>
+      <c r="G21" s="80">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H21" s="6">
         <v>7</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="I21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="K21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G22" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H22" s="50">
+        <v>7</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="82">
+        <v>0.625</v>
+      </c>
+      <c r="G23" s="82">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H23" s="52">
+        <v>8</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="83">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G24" s="83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G25" s="84">
+        <v>0.6875</v>
+      </c>
+      <c r="H25" s="53">
+        <v>8</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G26" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="H26" s="55">
+        <v>9</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="75">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H27" s="4">
+        <v>9</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="6">
-        <v>7</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="E28" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="86">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G28" s="86">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H28" s="35">
+        <v>9</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="76">
+        <v>0.4375</v>
+      </c>
+      <c r="G29" s="76">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H29" s="40">
         <v>10</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="50">
-        <v>7</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="52">
-        <v>8</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="7">
-        <v>8</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="53">
-        <v>8</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="55">
-        <v>9</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="16"/>
-      <c r="P26" s="31"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G27" s="4">
-        <v>9</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O27" s="16"/>
-      <c r="P27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="35">
-        <v>9</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="40">
-        <v>10</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="31"/>
+      <c r="I29" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="65" t="s">
+        <v>17</v>
+      </c>
       <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="5">
+        <v>191</v>
+      </c>
+      <c r="F30" s="77">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G30" s="77">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H30" s="5">
         <v>10</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="E31" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="44">
+        <v>191</v>
+      </c>
+      <c r="F31" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G31" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="44">
         <v>10</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O31" s="31"/>
+      <c r="I31" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>15</v>
+      </c>
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D32" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="79">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G32" s="79">
+        <v>0.5625</v>
+      </c>
+      <c r="H32" s="47">
+        <v>11</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="47">
+      <c r="E33" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="80">
+        <v>0.5625</v>
+      </c>
+      <c r="G33" s="80">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H33" s="6">
         <v>11</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="I33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G34" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H34" s="50">
+        <v>11</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="82">
+        <v>0.625</v>
+      </c>
+      <c r="G35" s="82">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H35" s="52">
+        <v>12</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="83">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G36" s="83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H36" s="7">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G37" s="84">
+        <v>0.6875</v>
+      </c>
+      <c r="H37" s="53">
+        <v>12</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="85">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G38" s="85">
+        <v>0.375</v>
+      </c>
+      <c r="H38" s="55">
+        <v>13</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="6">
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="75">
+        <v>0.375</v>
+      </c>
+      <c r="G39" s="75">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H39" s="4">
+        <v>13</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="K39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+    </row>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="86">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G40" s="86">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H40" s="35">
+        <v>13</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="76">
+        <v>0.4375</v>
+      </c>
+      <c r="G41" s="76">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H41" s="40">
+        <v>14</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="77">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G42" s="77">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H42" s="5">
+        <v>14</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G43" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="44">
+        <v>14</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="79">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G44" s="79">
+        <v>0.5625</v>
+      </c>
+      <c r="H44" s="47">
+        <v>15</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="80">
+        <v>0.5625</v>
+      </c>
+      <c r="G45" s="80">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H45" s="6">
         <v>15</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" s="50">
-        <v>11</v>
-      </c>
-      <c r="H34" s="36" t="s">
+      <c r="I45" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="39" t="s">
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="81">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G46" s="81">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H46" s="50">
+        <v>15</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J46" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="52">
-        <v>12</v>
-      </c>
-      <c r="H35" s="41" t="s">
+      <c r="C47" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="82">
+        <v>0.625</v>
+      </c>
+      <c r="G47" s="82">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H47" s="52">
+        <v>16</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="J35" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="7">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="K47" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="83">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G48" s="83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H48" s="7">
+        <v>16</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="53">
-        <v>12</v>
-      </c>
-      <c r="H37" s="36" t="s">
+      <c r="K48" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G49" s="84">
+        <v>0.6875</v>
+      </c>
+      <c r="H49" s="53">
+        <v>16</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="55">
-        <v>13</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="4">
-        <v>13</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G40" s="35">
-        <v>13</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="40">
-        <v>14</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="J41" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="5">
-        <v>14</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" s="44">
-        <v>14</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44" s="47">
-        <v>15</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="6">
-        <v>15</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="50">
-        <v>15</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="G47" s="52">
-        <v>16</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G48" s="7">
-        <v>16</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49" s="53">
-        <v>16</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="I49" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="31"/>
     </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H69" s="15"/>
-      <c r="I69" s="25"/>
+    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I69" s="15"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="15"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
